--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H2">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>617.0175803904067</v>
+        <v>19.77150980040889</v>
       </c>
       <c r="R2">
-        <v>5553.15822351366</v>
+        <v>177.94358820368</v>
       </c>
       <c r="S2">
-        <v>0.2662408855331496</v>
+        <v>0.04370156499624046</v>
       </c>
       <c r="T2">
-        <v>0.2662408855331496</v>
+        <v>0.04370156499624047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H3">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>535.4940652081423</v>
+        <v>26.05270621505422</v>
       </c>
       <c r="R3">
-        <v>4819.44658687328</v>
+        <v>234.474355935488</v>
       </c>
       <c r="S3">
-        <v>0.2310637794607945</v>
+        <v>0.05758508305529627</v>
       </c>
       <c r="T3">
-        <v>0.2310637794607944</v>
+        <v>0.05758508305529626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H4">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>748.7150505664357</v>
+        <v>36.42627345200355</v>
       </c>
       <c r="R4">
-        <v>6738.435455097921</v>
+        <v>327.836461068032</v>
       </c>
       <c r="S4">
-        <v>0.3230678742551822</v>
+        <v>0.08051409188794678</v>
       </c>
       <c r="T4">
-        <v>0.3230678742551822</v>
+        <v>0.0805140918879468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.256445</v>
       </c>
       <c r="I5">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J5">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>127.0497273195117</v>
+        <v>83.67926427040555</v>
       </c>
       <c r="R5">
-        <v>1143.447545875605</v>
+        <v>753.11337843365</v>
       </c>
       <c r="S5">
-        <v>0.05482150425420503</v>
+        <v>0.1849588040198672</v>
       </c>
       <c r="T5">
-        <v>0.05482150425420502</v>
+        <v>0.1849588040198672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.256445</v>
       </c>
       <c r="I6">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J6">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>110.2632682246489</v>
@@ -818,10 +818,10 @@
         <v>992.3694140218399</v>
       </c>
       <c r="S6">
-        <v>0.04757820701856642</v>
+        <v>0.2437182305075021</v>
       </c>
       <c r="T6">
-        <v>0.0475782070185664</v>
+        <v>0.2437182305075021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.256445</v>
       </c>
       <c r="I7">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J7">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>154.1674759968622</v>
@@ -880,10 +880,10 @@
         <v>1387.50728397176</v>
       </c>
       <c r="S7">
-        <v>0.06652271610128883</v>
+        <v>0.3407610263756329</v>
       </c>
       <c r="T7">
-        <v>0.06652271610128882</v>
+        <v>0.3407610263756329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H8">
         <v>0.206369</v>
       </c>
       <c r="I8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>8.051456473915664</v>
+        <v>5.302962613592222</v>
       </c>
       <c r="R8">
-        <v>72.46310826524099</v>
+        <v>47.72666352233</v>
       </c>
       <c r="S8">
-        <v>0.003474174755426864</v>
+        <v>0.01172129835657472</v>
       </c>
       <c r="T8">
-        <v>0.003474174755426864</v>
+        <v>0.01172129835657472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H9">
         <v>0.206369</v>
       </c>
       <c r="I9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
-        <v>6.987656908147554</v>
+        <v>6.987656908147556</v>
       </c>
       <c r="R9">
-        <v>62.88891217332799</v>
+        <v>62.888912173328</v>
       </c>
       <c r="S9">
-        <v>0.003015149036515135</v>
+        <v>0.01544502901526134</v>
       </c>
       <c r="T9">
-        <v>0.003015149036515135</v>
+        <v>0.01544502901526133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H10">
         <v>0.206369</v>
       </c>
       <c r="I10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
-        <v>9.769975495976887</v>
+        <v>9.769975495976889</v>
       </c>
       <c r="R10">
-        <v>87.92977946379199</v>
+        <v>87.929779463792</v>
       </c>
       <c r="S10">
-        <v>0.0042157095848715</v>
+        <v>0.02159487178567824</v>
       </c>
       <c r="T10">
-        <v>0.0042157095848715</v>
+        <v>0.02159487178567824</v>
       </c>
     </row>
   </sheetData>
